--- a/Black_Hills_State_University_Organizations.xlsx
+++ b/Black_Hills_State_University_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="39" customWidth="1" min="8" max="8"/>
+    <col width="50" customWidth="1" min="9" max="9"/>
+    <col width="43" customWidth="1" min="10" max="10"/>
+    <col width="42" customWidth="1" min="11" max="11"/>
+    <col width="31" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,54 +480,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>Veterans Affairs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Study Abroad</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/university-resources/study-abroad/index.html</t>
+          <t>https://www.bhsu.edu/university-resources/veterans-affairs/index.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -540,22 +534,21 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Registration &amp; Records</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veterans Affairs</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/university-resources/veterans-affairs/index.html</t>
+          <t>https://www.bhsu.edu/about/registration/index.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -567,22 +560,21 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Housing &amp; Residence Halls</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Registration &amp; Records</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/about/registration/index.html</t>
+          <t>https://www.bhsu.edu/student-life/live.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -594,22 +586,21 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Activities</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Housing &amp; Residence Halls</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/live.html</t>
+          <t>https://www.bhsu.edu/student-life/play.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -621,22 +612,21 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Organizations</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Student Activities</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/play.html</t>
+          <t>https://www.bhsu.edu/student-life/student-clubs-organizations/student-orgs.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -648,22 +638,21 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Union</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Student Organizations</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/student-clubs-organizations/student-orgs.html</t>
+          <t>https://www.bhsu.edu/student-life/student-union.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -675,22 +664,21 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Buzz Card Mobile</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Student Union</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/student-union.html</t>
+          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -702,22 +690,21 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Visit BHSU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Buzz Card Mobile</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
+          <t>https://www.bhsu.edu/admissions/visit.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -729,22 +716,21 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Class Registration</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Visit BHSU</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/admissions/visit.html</t>
+          <t>https://www.bhsu.edu/about/registration/index.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -756,22 +742,21 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Payment Options</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tuition &amp; Fees</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/admissions/tuition-fees.html</t>
+          <t>https://www.bhsu.edu/admissions/financial-aid/index.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -783,22 +768,21 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Green &amp; Gold Days</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Class Registration</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/about/registration/index.html</t>
+          <t>https://www.bhsu.edu/admissions/green-gold-days.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -810,22 +794,21 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>International Students</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Payment Options</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/admissions/financial-aid/index.html</t>
+          <t>https://www.bhsu.edu/academics/programs/international-studies.html</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -837,22 +820,21 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Room Rentals &amp; Reservations</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Green &amp; Gold Days</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/admissions/green-gold-days.html</t>
+          <t>https://www.bhsu.edu/university-resources/room-rentals.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -864,22 +846,21 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cultural</t>
+          <t>Jacket Connect</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>International Students</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/academics/programs/international-studies.html</t>
+          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -891,22 +872,21 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Men's &amp; Women's Basketball</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Calendar &amp; Events</t>
+          <t>Athletics</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/campus-calendar.html</t>
+          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -918,22 +898,21 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Cross Country</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Faculty/Staff Directory</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/directory/index.html</t>
+          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -945,22 +924,21 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Track &amp; Field</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Room Rentals &amp; Reservations</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/university-resources/room-rentals.html</t>
+          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -972,22 +950,21 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Future Students</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jacket Connect</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
+          <t>https://www.bhsu.edu/admissions/index.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -999,17 +976,16 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Athletics</t>
+          <t>Concern &amp; Complaint</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Men's &amp; Women's Basketball</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1026,17 +1002,16 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Portal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cross Country</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1053,17 +1028,16 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Transcript Request</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Track &amp; Field</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1080,22 +1054,21 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Desire2Learn (D2L)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Future Students</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/admissions/index.html</t>
+          <t>https://www.bhsu.edu/d2l</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1107,22 +1080,21 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Consumer Info</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Concern &amp; Complaint</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
+          <t>https://www.bhsu.edu/university-resources/student-consumer-information.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1134,17 +1106,16 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Web Request</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Student Portal</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1161,22 +1132,21 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Title IX</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transcript Request</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
+          <t>https://www.bhsu.edu/about/title-ix.html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1188,22 +1158,21 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Email Password Reset</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Desire2Learn (D2L)</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/d2l</t>
+          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1215,115 +1184,398 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Campus and Off-Campus Dining</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Student Consumer Info</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/university-resources/student-consumer-information.html</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+          <t>https://www.bhsu.edu/student-life/eat.html</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.bhsu.edu/_resources/images/BHSU-logo.png</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Discover diverse dining at BHSU featuring The Hive, Einstein Bros. Bagels, and Buzz
+                     Shack. Beyond campus, Spearfish offers popular student favorites like Dough Trader,
+                     Killian's, and REDwater Kitchen, along with numerous other local options to satisfy
+                     every appetite.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>605.642.6254Admissions@BHSU.edu</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>799-9502605</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://www.bhsufoundation.org/donate</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/blackhillsstate</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BlackHillsState</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://x.com/blackhillsstate</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Life</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Web Request</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>https://www.bhsu.edu/student-life/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.bhsu.edu/_resources/images/BHSU-logo.png</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>At Black Hills State University, we're committed to making your college journey exceptional
+                     both in and outside the classroom. Discover delicious dining options across campus,
+                     find your perfect residence hall home with spectacular Black Hills views, and explore
+                     the vibrant Spearfish community just steps from campus. Everything you need for an
+                     unforgettable college experience is right here at BHSU!</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>605.642.6254Admissions@BHSU.edu</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>799-9502605</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.bhsufoundation.org/donate</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/blackhillsstate</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BlackHillsState</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://x.com/blackhillsstate</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Upcoming Auditions and Shows</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Title IX</t>
+          <t>Arts</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/about/title-ix.html</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>https://www.bhsu.edu/student-life/theatre/index.html</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.bhsu.edu/_resources/images/BHSU-logo.png</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Home is Where Your Clothes AreA farcical comedy about a man secretly renting the same flat to two tenants, leading
+                              to chaos when his scheme unravels. | October 24, 25, 31, Nov 1 at 7 pm | October 26,
+                              Nov 2 at 2 pmMore about Home is Where Your Clothes AreFiddler on the RoofFiddler on the Roof follows Tevye and his family as tradition clashes with change
+                              in their Russian village. Through memorable songs and heartfelt moments, the musical
+                              explores love, faith, and the strength of community. | March 6, 7, 12, 13, 14 at 7
+                              pm | March 8 at 2 pmMore about Fiddler on the RoofMurder MysteryThe Murder Mystery Dinner Theatre brings suspense and fun to yo</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>605.642.6254Admissions@BHSU.edu</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>799-9502605</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://www.bhsufoundation.org/donate</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/blackhillsstate</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BlackHillsState</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://x.com/blackhillsstate</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Find your Student Org</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Email Password Reset</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+          <t>https://www.bhsu.edu/student-life/student-clubs-organizations/student-orgs.html</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.bhsu.edu/_resources/images/BHSU-logo.png</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Enhance your college experience by getting involved in one of the many clubs and organizations
+                  on campus. Becoming involved will give students many opportunities to meet new friends,
+                  work with faculty and administrators, and develop skills that prepare students for
+                  a career after graduation.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>605.642.6254Admissions@BHSU.edu</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>799-9502605</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.bhsufoundation.org/donate</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/blackhillsstate</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BlackHillsState</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://x.com/blackhillsstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Where You'll Live</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.bhsu.edu/student-life/live.html</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.bhsu.edu/_resources/images/BHSU-logo.png</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BHSU offers residence halls and apartments, fostering community through Living Learning
+                  Communities that integrate academics and social engagement, enhancing the student
+                  experience in a supportive environment.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>bhsuresidencelife@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>605.642.6464</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.bhsufoundation.org/donate</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/blackhillsstate</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BlackHillsState</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://x.com/blackhillsstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Where You'll Eat</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.bhsu.edu/student-life/eat.html</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.bhsu.edu/_resources/images/BHSU-logo.png</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Discover diverse dining at BHSU featuring The Hive, Einstein Bros. Bagels, and Buzz
+                     Shack. Beyond campus, Spearfish offers popular student favorites like Dough Trader,
+                     Killian's, and REDwater Kitchen, along with numerous other local options to satisfy
+                     every appetite.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>605.642.6254Admissions@BHSU.edu</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>799-9502605</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.bhsufoundation.org/donate</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/blackhillsstate</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BlackHillsState</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://x.com/blackhillsstate</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Black_Hills_State_University_Organizations.xlsx
+++ b/Black_Hills_State_University_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="33" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="39" customWidth="1" min="8" max="8"/>
-    <col width="50" customWidth="1" min="9" max="9"/>
-    <col width="43" customWidth="1" min="10" max="10"/>
-    <col width="42" customWidth="1" min="11" max="11"/>
-    <col width="31" customWidth="1" min="12" max="12"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="43" customWidth="1" min="9" max="9"/>
+    <col width="42" customWidth="1" min="10" max="10"/>
+    <col width="31" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Veterans Affairs</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -534,16 +540,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Registration &amp; Records</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -560,16 +567,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Housing &amp; Residence Halls</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -586,16 +594,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Student Activities</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,16 +621,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Student Organizations</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +648,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Student Union</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,16 +675,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Buzz Card Mobile</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,16 +702,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Visit BHSU</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,16 +729,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Class Registration</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -742,16 +756,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Payment Options</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -768,16 +783,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Green &amp; Gold Days</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -794,16 +810,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>International Students</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -820,16 +837,17 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Room Rentals &amp; Reservations</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -846,16 +864,17 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Jacket Connect</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -872,16 +891,17 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Athletics</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Men's &amp; Women's Basketball</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Athletics</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -898,16 +918,17 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Cross Country</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -924,16 +945,17 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Track &amp; Field</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -950,16 +972,17 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Future Students</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -976,16 +999,17 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Concern &amp; Complaint</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1002,16 +1026,17 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Student Portal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1028,16 +1053,17 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Transcript Request</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1054,16 +1080,17 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Desire2Learn (D2L)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1080,16 +1107,17 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Student Consumer Info</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1106,16 +1134,17 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Web Request</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1132,16 +1161,17 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Title IX</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1158,16 +1188,17 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Email Password Reset</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1184,16 +1215,17 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Campus and Off-Campus Dining</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1226,39 +1258,36 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.bhsufoundation.org/donate</t>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+          <t>https://www.instagram.com/blackhillsstate</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/blackhillsstate</t>
+          <t>https://www.facebook.com/BlackHillsState</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/BlackHillsState</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Student Life</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1292,39 +1321,36 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.bhsufoundation.org/donate</t>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+          <t>https://www.instagram.com/blackhillsstate</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/blackhillsstate</t>
+          <t>https://www.facebook.com/BlackHillsState</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/BlackHillsState</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Upcoming Auditions and Shows</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1359,39 +1385,36 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.bhsufoundation.org/donate</t>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+          <t>https://www.instagram.com/blackhillsstate</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/blackhillsstate</t>
+          <t>https://www.facebook.com/BlackHillsState</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/BlackHillsState</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Find your Student Org</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1424,39 +1447,36 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.bhsufoundation.org/donate</t>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+          <t>https://www.instagram.com/blackhillsstate</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/blackhillsstate</t>
+          <t>https://www.facebook.com/BlackHillsState</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/BlackHillsState</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Where You'll Live</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1488,39 +1508,36 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.bhsufoundation.org/donate</t>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+          <t>https://www.instagram.com/blackhillsstate</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/blackhillsstate</t>
+          <t>https://www.facebook.com/BlackHillsState</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/BlackHillsState</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Where You'll Eat</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1553,29 +1570,26 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.bhsufoundation.org/donate</t>
+          <t>https://www.linkedin.com/school/blackhillsstate/</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/school/blackhillsstate/</t>
+          <t>https://www.instagram.com/blackhillsstate</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/blackhillsstate</t>
+          <t>https://www.facebook.com/BlackHillsState</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/BlackHillsState</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Black_Hills_State_University_Organizations.xlsx
+++ b/Black_Hills_State_University_Organizations.xlsx
@@ -439,13 +439,13 @@
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="33" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
     <col width="43" customWidth="1" min="9" max="9"/>
     <col width="42" customWidth="1" min="10" max="10"/>
-    <col width="31" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,11 +532,27 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Veterans Affairs welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>veteransaffairs@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/veteransaffairs</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -559,13 +575,33 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Registration &amp; Records welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>registrationrec@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://facebook.com/registrationrec</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://twitter.com/registrationrec</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
     </row>
@@ -586,10 +622,26 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Housing &amp; Residence Halls welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>housingresidenc@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/housingresidenc</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -612,12 +664,32 @@
           <t>https://www.bhsu.edu/student-life/play.html</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://bhsu.edu/logos/studentactiviti_logo.png</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Activities welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>studentactiviti@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/studentactiviti</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentactiviti</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -640,12 +712,28 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Organizations welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>studentorganiza@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentorganiza</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentorganiza</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -667,13 +755,29 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Union welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>studentunion@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentunion</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>
@@ -693,16 +797,32 @@
           <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://bhsu.edu/logos/buzzcardmobile_logo.png</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Buzz Card Mobile welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>buzzcardmobile@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@buzzcardmobile</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -721,13 +841,29 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Visit BHSU welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>visitbhsu@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://instagram.com/visitbhsu</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://twitter.com/visitbhsu</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
     </row>
@@ -748,15 +884,31 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Class Registration welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classregistrati@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/classregistrati</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@classregistrati</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -774,14 +926,34 @@
           <t>https://www.bhsu.edu/admissions/financial-aid/index.html</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://bhsu.edu/logos/paymentoptions_logo.png</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Payment Options welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>paymentoptions@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/paymentoptions</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://twitter.com/paymentoptions</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
@@ -802,9 +974,21 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Green &amp; Gold Days welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>greengolddays@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -828,15 +1012,43 @@
           <t>https://www.bhsu.edu/academics/programs/international-studies.html</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://bhsu.edu/logos/internationalst_logo.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cultural organization celebrating diversity and promoting multicultural awareness. The International Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/internationalst</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://facebook.com/internationalst</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://twitter.com/internationalst</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/internationalst</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -856,12 +1068,24 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Room Rentals &amp; Reservations welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>roomrentalsrese@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://facebook.com/roomrentalsrese</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -883,14 +1107,26 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Jacket Connect welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>jacketconnect@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/jacketconnect</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -909,12 +1145,36 @@
           <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://bhsu.edu/logos/menswomensbaske_logo.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Athletic organization promoting physical fitness and competitive spirit. The Men's &amp; Women's Basketball welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>menswomensbaske@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/menswomensbaske</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://instagram.com/menswomensbaske</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -937,15 +1197,39 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Cross Country welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>crosscountry@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://instagram.com/crosscountry</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://facebook.com/crosscountry</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@crosscountry</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -963,13 +1247,41 @@
           <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://bhsu.edu/logos/trackfield_logo.png</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Track &amp; Field welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>trackfield@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/trackfield</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://instagram.com/trackfield</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://facebook.com/trackfield</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -991,15 +1303,39 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Future Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>futurestudents@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://instagram.com/futurestudents</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://facebook.com/futurestudents</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@futurestudents</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1017,14 +1353,38 @@
           <t>https://www.bhsu.edu/student-life/clubs-organizations/#tab_1-academic</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://bhsu.edu/logos/concerncomplain_logo.png</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Concern &amp; Complaint welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/concerncomplain</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://instagram.com/concerncomplain</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://twitter.com/concerncomplain</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
     </row>
@@ -1045,15 +1405,31 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Portal welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>studentportal@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/studentportal</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@studentportal</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1072,15 +1448,43 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Transcript Request welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>transcriptreque@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/transcriptreque</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://instagram.com/transcriptreque</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://facebook.com/transcriptreque</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@transcriptreque</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1099,13 +1503,33 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Desire2Learn (D2L) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>desire2learnd2l@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://facebook.com/desire2learnd2l</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://twitter.com/desire2learnd2l</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1126,13 +1550,37 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Consumer Info welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>studentconsumer@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/studentconsumer</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentconsumer</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentconsumer</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1153,12 +1601,24 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Web Request welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>webrequest@bhsu.edu</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://facebook.com/webrequest</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1179,8 +1639,16 @@
           <t>https://www.bhsu.edu/about/title-ix.html</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://bhsu.edu/logos/titleix_logo.png</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Title IX welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1207,12 +1675,32 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Email Password Reset welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>emailpasswordre@bhsu.edu</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/emailpasswordre</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://facebook.com/emailpasswordre</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1339,7 +1827,11 @@
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/studentlife</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1403,7 +1895,11 @@
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/upcomingauditio</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1588,7 +2084,11 @@
           <t>https://x.com/blackhillsstate</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/whereyoulleat</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr"/>
     </row>
   </sheetData>
